--- a/config_11.24/game_module_config.xlsx
+++ b/config_11.24/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4336,10 +4336,10 @@
   <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A152" sqref="A152"/>
+      <selection pane="bottomRight" activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11450,13 +11450,13 @@
         <v>837</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" s="24" t="s">
         <v>839</v>
@@ -11528,13 +11528,13 @@
         <v>855</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" s="24" t="s">
         <v>849</v>

--- a/config_11.24/game_module_config.xlsx
+++ b/config_11.24/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="911">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3798,6 +3798,42 @@
   </si>
   <si>
     <t>BY3DPHBManager</t>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡掉落需求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_GELBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4333,13 +4369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I297"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G290" sqref="G290"/>
+      <selection pane="bottomRight" activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11898,6 +11934,84 @@
         <v>1</v>
       </c>
       <c r="I297" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="19">
+        <v>297</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>902</v>
+      </c>
+      <c r="C298" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="I298" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="19">
+        <v>298</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C299" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="D299" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="I299" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="19">
+        <v>299</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="D300" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="I300" s="24" t="s">
         <v>645</v>
       </c>
     </row>

--- a/config_11.24/game_module_config.xlsx
+++ b/config_11.24/game_module_config.xlsx
@@ -4372,10 +4372,10 @@
   <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A300" sqref="A300"/>
+      <selection pane="bottomRight" activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11512,13 +11512,13 @@
         <v>840</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
         <v>839</v>

--- a/config_11.24/game_module_config.xlsx
+++ b/config_11.24/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="915">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3833,6 +3833,22 @@
   </si>
   <si>
     <t>Act_036_GELBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_by3d_shop_enter</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼商城入口(获取金币中)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSBY3DShopManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4369,13 +4385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G281" sqref="G281"/>
+      <selection pane="bottomRight" activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12013,6 +12029,32 @@
       </c>
       <c r="I300" s="24" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="19">
+        <v>300</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="D301" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="I301" s="24" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
